--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faruk\Desktop\2021-gunluk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C213BD99-FA1D-410D-ADBE-B6C55154DD99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD242BB-22DF-48B6-A5B7-804F4B892E2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{87A575F6-0131-4ACD-BF77-44678B889F5E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" activeTab="1" xr2:uid="{87A575F6-0131-4ACD-BF77-44678B889F5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Aktivite Tanımları" sheetId="1" r:id="rId1"/>
@@ -537,7 +537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666F1667-97D7-43A4-9929-B22CCF724005}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF45C1BE-8FBD-491B-8D51-75568AB71812}">
   <dimension ref="A1:XFA103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
